--- a/hiqu/HR/Performance Evaluation/November 2024/QA/Kashif Hayat.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/QA/Kashif Hayat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B84B3F-C62F-401F-951D-5CF8FF062210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5B9EA-51DF-44C2-801A-120B0018C9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -434,9 +434,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -730,7 +731,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -808,6 +809,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2908,7 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2920,18 +2927,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
@@ -2939,11 +2946,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -2951,11 +2958,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -2963,11 +2970,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -2975,11 +2982,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -2987,11 +2994,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -2999,12 +3006,12 @@
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="40">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.3424657534246576</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+        <v>1.3671232876712329</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
@@ -3012,11 +3019,11 @@
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3300,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C9BAD-B65A-4A96-9DE3-A2864D56E5E3}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,13 +3318,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
@@ -3334,12 +3341,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
@@ -3359,13 +3366,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3374,7 +3381,9 @@
       <c r="C7" s="21">
         <v>0.6</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21">
+        <v>0.6</v>
+      </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
     </row>
@@ -3385,7 +3394,9 @@
       <c r="C8" s="21">
         <v>0.6</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="21">
+        <v>0.6</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
@@ -3396,7 +3407,9 @@
       <c r="C9" s="21">
         <v>0.8</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="21">
+        <v>0.85</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
     </row>
@@ -3407,7 +3420,9 @@
       <c r="C10" s="21">
         <v>0.6</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="21">
+        <v>0.65</v>
+      </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
     </row>
@@ -3418,7 +3433,9 @@
       <c r="C11" s="21">
         <v>0.7</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="21">
+        <v>0.7</v>
+      </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
     </row>
@@ -3429,7 +3446,9 @@
       <c r="C12" s="21">
         <v>0.65</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="21">
+        <v>0.65</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
@@ -3440,7 +3459,9 @@
       <c r="C13" s="21">
         <v>0.6</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="21">
+        <v>0.65</v>
+      </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
@@ -3451,18 +3472,20 @@
       <c r="C14" s="21">
         <v>0.6</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="21">
+        <v>0.6</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -3471,7 +3494,9 @@
       <c r="C16" s="21">
         <v>0.7</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="21">
+        <v>0.7</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
@@ -3482,7 +3507,9 @@
       <c r="C17" s="21">
         <v>0.6</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="21">
+        <v>0.65</v>
+      </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
@@ -3493,7 +3520,9 @@
       <c r="C18" s="21">
         <v>0.8</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="21">
+        <v>0.8</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
     </row>
@@ -3504,7 +3533,9 @@
       <c r="C19" s="21">
         <v>0.6</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="21">
+        <v>0.6</v>
+      </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
@@ -3515,7 +3546,9 @@
       <c r="C20" s="21">
         <v>0.6</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="21">
+        <v>0.6</v>
+      </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
@@ -3526,7 +3559,9 @@
       <c r="C21" s="21">
         <v>0.75</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="21">
+        <v>0.75</v>
+      </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
@@ -3537,18 +3572,20 @@
       <c r="C22" s="21">
         <v>0.6</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="21">
+        <v>0.6</v>
+      </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
@@ -3557,7 +3594,9 @@
       <c r="C24" s="21">
         <v>0.6</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="21">
+        <v>0.6</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
@@ -3568,7 +3607,9 @@
       <c r="C25" s="21">
         <v>0.6</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="21">
+        <v>0.5</v>
+      </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
@@ -3579,7 +3620,9 @@
       <c r="C26" s="21">
         <v>0.6</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="21">
+        <v>0.6</v>
+      </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
     </row>
@@ -3590,7 +3633,9 @@
       <c r="C27" s="21">
         <v>0.7</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="21">
+        <v>0.6</v>
+      </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
     </row>
@@ -3601,7 +3646,9 @@
       <c r="C28" s="21">
         <v>0.7</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="21">
+        <v>0.7</v>
+      </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
     </row>
@@ -3612,7 +3659,9 @@
       <c r="C29" s="21">
         <v>0.7</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="21">
+        <v>0.7</v>
+      </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
     </row>
@@ -3623,7 +3672,9 @@
       <c r="C30" s="21">
         <v>0.8</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="21">
+        <v>0.8</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
     </row>
@@ -3634,7 +3685,9 @@
       <c r="C31" s="21">
         <v>0.8</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="21">
+        <v>0.8</v>
+      </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
     </row>
@@ -3647,7 +3700,7 @@
     <mergeCell ref="B23:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C14">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3661,7 +3714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C22">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3675,7 +3728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C31">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3688,50 +3741,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B74F0BC4-391C-4A93-8A8A-AA00FD1B00ED}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22">
+  <conditionalFormatting sqref="E7:E14">
     <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DFE5244B-44D9-492D-8451-6AAC23FE9EE2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D31">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9D3A778A-3555-4B40-B414-C3AB36126ABB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E14">
-    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3745,7 +3756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E22">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3759,7 +3770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E31">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3773,7 +3784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F14">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3787,7 +3798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F22">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3801,6 +3812,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F31">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9649C61E-B50B-415A-908D-F4E3B8152829}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{08925B67-2292-4D7B-8054-48F5B55E9BB0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D22">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3B18D98D-A4CA-407E-A3C9-34806D3D52B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D31">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3809,7 +3862,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9649C61E-B50B-415A-908D-F4E3B8152829}</x14:id>
+          <x14:id>{A474C045-4B92-445F-9064-DFFDC9DEA28B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3862,51 +3915,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C24:C31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B74F0BC4-391C-4A93-8A8A-AA00FD1B00ED}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DFE5244B-44D9-492D-8451-6AAC23FE9EE2}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16:D22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9D3A778A-3555-4B40-B414-C3AB36126ABB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="5" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D24:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C359AD0E-DF64-4755-BA16-ACC0D39A79D1}">
@@ -3998,6 +4006,51 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{08925B67-2292-4D7B-8054-48F5B55E9BB0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3B18D98D-A4CA-407E-A3C9-34806D3D52B3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A474C045-4B92-445F-9064-DFFDC9DEA28B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24:D31</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4006,10 +4059,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:X54"/>
+  <dimension ref="B2:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4034,85 +4090,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -4121,36 +4177,36 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="52"/>
-      <c r="P6" s="53"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
       <c r="R6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="T6" s="9"/>
-      <c r="U6" s="51" t="s">
+      <c r="U6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="53"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="55"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
@@ -4176,8 +4232,8 @@
       <c r="J7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="N7" s="9" t="s">
         <v>14</v>
       </c>
@@ -4185,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>87</v>
@@ -4223,7 +4279,10 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="37">
+        <f>IF(N8&gt;0,N8-O8,0)</f>
+        <v>0</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="28"/>
       <c r="S8" s="2"/>
@@ -4252,7 +4311,10 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="37">
+        <f t="shared" ref="P9:P41" si="0">IF(N9&gt;0,N9-O9,0)</f>
+        <v>0</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="28">
         <f>D9+E9+F9+G9+H9+I9+J9+K9+L9+O9</f>
@@ -4282,10 +4344,13 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="28">
-        <f t="shared" ref="R10:R52" si="0">D10+E10+F10+G10+H10+I10+J10+K10+L10+O10</f>
+        <f t="shared" ref="R10:R41" si="1">D10+E10+F10+G10+H10+I10+J10+K10+L10+O10</f>
         <v>0</v>
       </c>
       <c r="S10" s="2"/>
@@ -4314,10 +4379,13 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S11" s="2"/>
@@ -4344,10 +4412,13 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S12" s="2"/>
@@ -4374,14 +4445,19 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2">
+        <v>8</v>
+      </c>
       <c r="O13" s="2">
         <v>48</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="37">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="S13" s="2"/>
@@ -4410,14 +4486,19 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2">
+        <v>8</v>
+      </c>
       <c r="O14" s="2">
         <v>37</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" s="37">
+        <f t="shared" si="0"/>
+        <v>-29</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="S14" s="2"/>
@@ -4446,10 +4527,13 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S15" s="2"/>
@@ -4478,10 +4562,13 @@
       <c r="O16" s="2">
         <v>10</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="S16" s="2"/>
@@ -4506,14 +4593,19 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2">
+        <v>6</v>
+      </c>
       <c r="O17" s="2">
         <v>31</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" s="37">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="S17" s="2"/>
@@ -4542,10 +4634,13 @@
       <c r="O18" s="2">
         <v>2</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S18" s="2"/>
@@ -4574,10 +4669,13 @@
       <c r="O19" s="2">
         <v>1</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="P19" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S19" s="2"/>
@@ -4606,10 +4704,13 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S20" s="2"/>
@@ -4636,10 +4737,13 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S21" s="2"/>
@@ -4670,10 +4774,13 @@
       <c r="O22" s="2">
         <v>6</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="S22" s="2"/>
@@ -4702,10 +4809,13 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S23" s="2"/>
@@ -4734,10 +4844,13 @@
       <c r="O24" s="2">
         <v>1</v>
       </c>
-      <c r="P24" s="2"/>
+      <c r="P24" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S24" s="2"/>
@@ -4766,10 +4879,13 @@
       <c r="O25" s="2">
         <v>12</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S25" s="2"/>
@@ -4794,14 +4910,19 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" s="2">
+        <v>4</v>
+      </c>
       <c r="O26" s="2">
         <v>3</v>
       </c>
-      <c r="P26" s="2"/>
+      <c r="P26" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S26" s="2"/>
@@ -4828,10 +4949,13 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S27" s="2"/>
@@ -4860,10 +4984,13 @@
       <c r="O28" s="2">
         <v>8</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S28" s="2"/>
@@ -4892,10 +5019,13 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="P29" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S29" s="2"/>
@@ -4928,10 +5058,13 @@
       <c r="O30" s="2">
         <v>30</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="S30" s="2"/>
@@ -4960,10 +5093,13 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="P31" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="S31" s="2"/>
@@ -4993,10 +5129,13 @@
         <f>48+35</f>
         <v>83</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="S32" s="2"/>
@@ -5025,10 +5164,13 @@
       <c r="O33" s="2">
         <v>29</v>
       </c>
-      <c r="P33" s="2"/>
+      <c r="P33" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="S33" s="2"/>
@@ -5055,10 +5197,13 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+      <c r="P34" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S34" s="2"/>
@@ -5087,10 +5232,13 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="P35" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S35" s="2"/>
@@ -5119,10 +5267,13 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="P36" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S36" s="2"/>
@@ -5151,10 +5302,13 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="P37" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S37" s="2"/>
@@ -5183,10 +5337,13 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="P38" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S38" s="2"/>
@@ -5215,10 +5372,13 @@
       <c r="O39" s="2">
         <v>4</v>
       </c>
-      <c r="P39" s="2"/>
+      <c r="P39" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S39" s="2"/>
@@ -5229,7 +5389,7 @@
       <c r="X39" s="6"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -5243,10 +5403,13 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="P40" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40" s="2"/>
@@ -5257,7 +5420,7 @@
       <c r="X40" s="6"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5271,10 +5434,13 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="P41" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S41" s="2"/>
@@ -5284,390 +5450,82 @@
       <c r="W41" s="2"/>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="6"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="6"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="6"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="6"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="6"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="6"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="27"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="6"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="6"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="6"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="6"/>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="6"/>
-    </row>
-    <row r="53" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="10" t="s">
+    <row r="42" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11">
-        <f t="shared" ref="D53:L53" si="1">SUM(D8:D51)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11">
-        <f t="shared" si="1"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11">
+        <f>SUM(D8:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11">
+        <f t="shared" ref="F42:L42" si="2">SUM(F8:F40)</f>
         <v>50</v>
       </c>
-      <c r="G53" s="11">
-        <f>SUM(G8:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="11">
-        <f t="shared" si="1"/>
+      <c r="G42" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I53" s="11">
-        <f t="shared" si="1"/>
+      <c r="I42" s="11">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J53" s="11">
-        <f t="shared" si="1"/>
+      <c r="J42" s="11">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K53" s="11">
-        <f t="shared" si="1"/>
+      <c r="K42" s="11">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="L53" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11">
-        <f>SUM(N8:N52)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="11">
-        <f>SUM(O8:O52)</f>
+      <c r="L42" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11">
+        <f>SUM(N8:N41)</f>
+        <v>26</v>
+      </c>
+      <c r="O42" s="11">
+        <f>SUM(O8:O41)</f>
         <v>305</v>
       </c>
-      <c r="P53" s="12">
-        <f t="shared" ref="P53" si="2">IF(N53=0,0,(O53-N53)/N53)</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11">
-        <f>SUM(R8:R52)</f>
+      <c r="P42" s="38">
+        <f>N42-O42</f>
+        <v>-279</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11">
+        <f>SUM(R8:R41)</f>
         <v>427</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11">
-        <f>SUM(U8:U52)</f>
-        <v>0</v>
-      </c>
-      <c r="V53" s="11">
-        <f>SUM(V8:V52)</f>
-        <v>0</v>
-      </c>
-      <c r="W53" s="11">
-        <f>SUM(W8:W52)</f>
-        <v>0</v>
-      </c>
-      <c r="X53" s="11">
-        <f>SUM(X8:X52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11">
+        <f>SUM(U8:U41)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <f>SUM(V8:V41)</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <f>SUM(W8:W41)</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="11">
+        <f>SUM(X8:X41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:X2"/>
@@ -5713,82 +5571,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -5797,35 +5655,35 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="54" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
       <c r="Q6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="53"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
@@ -5848,8 +5706,8 @@
       <c r="I7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
       <c r="M7" s="9" t="s">
         <v>14</v>
       </c>
@@ -6879,82 +6737,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -6963,35 +6821,35 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="54" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
       <c r="Q6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="53"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
@@ -7014,8 +6872,8 @@
       <c r="I7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
       <c r="M7" s="9" t="s">
         <v>14</v>
       </c>
@@ -7590,82 +7448,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -7674,35 +7532,35 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="54" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
       <c r="Q6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="53"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
@@ -7725,8 +7583,8 @@
       <c r="I7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
       <c r="M7" s="9" t="s">
         <v>14</v>
       </c>
